--- a/biology/Botanique/Forêt_du_Neuhof/Forêt_du_Neuhof.xlsx
+++ b/biology/Botanique/Forêt_du_Neuhof/Forêt_du_Neuhof.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_du_Neuhof</t>
+          <t>Forêt_du_Neuhof</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt du Neuhof est l'une des deux forêts rhénanes — l'autre étant la forêt de la Robertsau — entourant la ville de Strasbourg en Alsace. Elle se situe au sud de la ville, en bordure du Rhin et du canal d'Alsace.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_du_Neuhof</t>
+          <t>Forêt_du_Neuhof</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêt périurbaine, elle est située au sud du quartier strasbourgeois du Neuhof (duquel elle tire son nom) et à l'est de la commune d'Illkirch-Graffenstaden. Sa superficie est de 757 hectares. 
 Elle est gérée et entretenue par le service des espaces verts, des jardins familiaux et des forêts de Eurométropole de Strasbourg. Depuis 2012, elle est intégrée à la Réserve naturelle nationale du massif forestier de Strasbourg-Neuhof/Illkirch-Graffenstaden.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_du_Neuhof</t>
+          <t>Forêt_du_Neuhof</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Forêt de la Robertsau
 Réserve naturelle de l'île du Rohrschollen, située à l’est de la forêt du Neuhof.</t>
